--- a/MakeMoney/Thong_Ke/documents-export-2013-11-20/Cau_T(2).xlsx
+++ b/MakeMoney/Thong_Ke/documents-export-2013-11-20/Cau_T(2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="221" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="6" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="507" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="50">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -323,7 +323,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -389,6 +389,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="6" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
@@ -482,9 +483,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.3372549019608"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="17.3843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4745098039216"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5882352941176"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="17.4745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -638,43 +639,43 @@
   </sheetPr>
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="V27" activeCellId="0" pane="topLeft" sqref="V27"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="W27" activeCellId="0" pane="topLeft" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.91764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.48235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.48235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.07450980392157"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.03921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.07450980392157"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.65098039215686"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.03921568627451"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.1921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.62745098039216"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.62745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.3843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.50196078431373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.50196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.05882352941176"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.05882352941176"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.21176470588235"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.64313725490196"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.64313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.4745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1422,6 +1423,9 @@
       <c r="V25" s="3" t="n">
         <v>77</v>
       </c>
+      <c r="W25" s="0" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="20"/>
@@ -1477,10 +1481,10 @@
       <c r="U26" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="V26" s="5" t="s">
+      <c r="V26" s="5"/>
+      <c r="W26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
@@ -1510,42 +1514,42 @@
   <dimension ref="A1:AF62"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="V63" activeCellId="0" pane="topLeft" sqref="V63"/>
+      <selection activeCell="W64" activeCellId="0" pane="topLeft" sqref="W64"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.91764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.48235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.48235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.07450980392157"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.03921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.07450980392157"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.65098039215686"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.03921568627451"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.1921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.62745098039216"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.62745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.3843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.50196078431373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.50196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.05882352941176"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.05882352941176"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.21176470588235"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.64313725490196"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.64313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.4745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1644,7 +1648,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1719,7 +1723,7 @@
       <c r="AF3" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="5">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1796,7 +1800,7 @@
       <c r="AF6" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="8">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1875,7 +1879,7 @@
       <c r="AF9" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="11">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="26" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1942,7 +1946,7 @@
       <c r="AF12" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="14">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2029,7 +2033,7 @@
       <c r="AF15" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="17">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2090,7 +2094,7 @@
       <c r="AF18" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="20">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2155,7 +2159,7 @@
       <c r="AF21" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="23">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="26" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2240,7 +2244,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="26">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2311,7 +2315,7 @@
       <c r="AF27" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="26" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2386,7 +2390,7 @@
       <c r="AF30" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="32">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="26" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2525,7 +2529,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="38">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="26" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3326,10 +3330,10 @@
       <c r="U62" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="V62" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="W62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
@@ -3362,43 +3366,41 @@
   </sheetPr>
   <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="U4" activeCellId="0" pane="topLeft" sqref="U4"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A5" activeCellId="0" pane="topLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.91764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.48235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.48235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.07450980392157"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.03921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="3.48235294117647"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.48627450980392"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="3.91764705882353"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.1921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.62745098039216"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.62745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.3843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.90196078431373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.74509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.90196078431373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.34117647058824"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.34117647058824"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="4.34117647058824"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="4.19607843137255"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="4.06274509803922"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="4.34117647058824"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.4745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -4382,6 +4384,9 @@
       <c r="V32" s="3" t="n">
         <v>18</v>
       </c>
+      <c r="W32" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="A33" s="20"/>
@@ -4418,15 +4423,21 @@
       <c r="P33" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5" t="s">
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="U33" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="W33" s="5"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
@@ -4460,42 +4471,42 @@
   <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="V28" activeCellId="0" pane="topLeft" sqref="V28"/>
+      <selection activeCell="U28" activeCellId="0" pane="topLeft" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.91764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.48235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.48235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.07450980392157"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.03921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.07450980392157"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.65098039215686"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.03921568627451"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.1921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.62745098039216"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.62745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.3843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.50196078431373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.50196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.05882352941176"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.05882352941176"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.21176470588235"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.64313725490196"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.64313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.4745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5266,6 +5277,9 @@
       <c r="V26" s="3" t="n">
         <v>22</v>
       </c>
+      <c r="W26" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="20"/>
@@ -5304,15 +5318,21 @@
       <c r="P27" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5" t="s">
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="U27" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
@@ -5341,43 +5361,43 @@
   </sheetPr>
   <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A37" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B42" activeCellId="0" pane="topLeft" sqref="B42"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="W71" activeCellId="0" pane="topLeft" sqref="W71"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.91764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.48235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.48235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.07450980392157"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.03921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.07450980392157"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.65098039215686"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.03921568627451"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.1921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.62745098039216"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.62745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.3843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.50196078431373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.50196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.05882352941176"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.05882352941176"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.21176470588235"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.64313725490196"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.64313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.4745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -7149,6 +7169,9 @@
       <c r="V70" s="3" t="n">
         <v>22</v>
       </c>
+      <c r="W70" s="0" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
       <c r="A71" s="20"/>
@@ -7183,19 +7206,21 @@
       <c r="P71" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
       <c r="T71" s="5" t="n">
         <v>1</v>
       </c>
       <c r="U71" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="V71" s="5" t="s">
+      <c r="V71" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W71" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="W71" s="5"/>
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
@@ -7230,43 +7255,43 @@
   </sheetPr>
   <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="V68" activeCellId="0" pane="topLeft" sqref="V68"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A37" activeCellId="0" pane="topLeft" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.91764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.48235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.48235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.07450980392157"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.03921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.48627450980392"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="4.77647058823529"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.1921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.62745098039216"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.62745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.3843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.50196078431373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.50196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.05882352941176"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.21176470588235"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.64313725490196"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.64313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.4745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -8972,6 +8997,9 @@
       <c r="V67" s="3" t="n">
         <v>39</v>
       </c>
+      <c r="W67" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="68">
       <c r="A68" s="20"/>
@@ -9013,10 +9041,10 @@
       </c>
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
-      <c r="V68" s="5" t="s">
+      <c r="V68" s="5"/>
+      <c r="W68" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="W68" s="5"/>
       <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
@@ -9055,38 +9083,38 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.91764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.48235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.48235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.07450980392157"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.03921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.07450980392157"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.65098039215686"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.03921568627451"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.1921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.62745098039216"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.62745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.3843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.50196078431373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.50196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.05882352941176"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.05882352941176"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.21176470588235"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.64313725490196"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.64313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.4745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -9908,45 +9936,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF25"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="V26" activeCellId="0" pane="topLeft" sqref="V26"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="S5" activeCellId="0" pane="topLeft" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.91764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.48235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.48235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.07450980392157"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.03921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.07450980392157"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.65098039215686"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.03921568627451"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.1921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.62745098039216"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.62745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.3843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.06274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.34117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.90196078431373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.19607843137255"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="5.6"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.34117647058824"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="4.34117647058824"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.4745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -10044,987 +10072,1222 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="3">
-      <c r="A3" s="2" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="2">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="5">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="8">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="9">
+      <c r="A9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="14"/>
+      <c r="T9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="11">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12" s="10">
+      <c r="A12" s="5"/>
+      <c r="B12" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="X12" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="23"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="14">
+      <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B14" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C14" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D14" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G14" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J14" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K14" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="S14" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="T14" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="U14" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="V14" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="W14" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="X14" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Y14" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="Z14" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AA14" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AB14" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AC14" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AD14" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AE14" s="0" t="n">
         <v>45</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="X4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="6">
-      <c r="A6" s="2" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="X15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="17">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B17" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C17" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D17" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="M6" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="N6" s="0" t="n">
+      <c r="M17" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="N17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="O6" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="P6" s="0" t="n">
+      <c r="O17" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="P17" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S17" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="T17" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="U17" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="V17" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="W17" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="X6" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y6" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z6" s="0" t="n">
+      <c r="X17" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z17" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AA17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AB17" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AC17" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AD17" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AE17" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AF17" s="0" t="n">
         <v>58</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="9">
-      <c r="A9" s="2" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="20">
+      <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="12">
-      <c r="A12" s="2" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="23">
+      <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="15">
-      <c r="A15" s="2" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="26">
+      <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE15" s="0" t="n">
+      <c r="AE26" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="AF15" s="0" t="n">
+      <c r="AF26" s="0" t="n">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
-      <c r="A16" s="20"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF16" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="18">
-      <c r="A18" s="2" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
+      <c r="A27" s="20"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF27" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B29" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C29" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D29" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E29" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I29" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J29" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K29" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="N29" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="AF18" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
-      <c r="A19" s="20"/>
-      <c r="B19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="11" t="n">
+      <c r="AF29" s="21"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
+      <c r="A30" s="20"/>
+      <c r="B30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E19" s="11" t="n">
+      <c r="E30" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="F19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="11" t="n">
+      <c r="F30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="M19" s="11" t="n">
+      <c r="M30" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="N19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="21">
-      <c r="A21" s="2" t="s">
+      <c r="N30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="32">
+      <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B32" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C32" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D32" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E32" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F32" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G32" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H32" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I32" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J32" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K32" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M32" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="N32" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="O32" s="0" t="n">
         <v>292</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="P32" s="0" t="n">
         <v>383</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="Q32" s="0" t="n">
         <v>292</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="R32" s="0" t="n">
         <v>242</v>
       </c>
-      <c r="S21" s="3" t="n">
+      <c r="S32" s="3" t="n">
         <v>262</v>
       </c>
-      <c r="T21" s="3" t="n">
+      <c r="T32" s="3" t="n">
         <v>181</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="U32" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="V32" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="W32" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="X32" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Y32" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="Z32" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AA32" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AB32" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AC32" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="AD21" s="0" t="n">
+      <c r="AD32" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="AE21" s="0" t="n">
+      <c r="AE32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AF32" s="0" t="n">
         <v>42</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
-      <c r="A22" s="20"/>
-      <c r="B22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="11" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
+      <c r="A33" s="20"/>
+      <c r="B33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="I22" s="11" t="n">
+      <c r="I33" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="J22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11" t="n">
+      <c r="J33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="U22" s="11" t="n">
+      <c r="U33" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="V22" s="11" t="n">
+      <c r="V33" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="W22" s="11" t="n">
+      <c r="W33" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="X22" s="11" t="n">
+      <c r="X33" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="Y22" s="11" t="n">
+      <c r="Y33" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="Z22" s="11" t="n">
+      <c r="Z33" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="AA22" s="11" t="n">
+      <c r="AA33" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="AB22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
-      <c r="A23" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="24">
-      <c r="A24" s="2" t="s">
+      <c r="AB33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
+      <c r="A34" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="35">
+      <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B35" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C35" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D35" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E35" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F35" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G35" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H35" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I35" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J35" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K35" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L35" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="M35" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="N35" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="O35" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="P35" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="Q35" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="R35" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="S24" s="3" t="n">
+      <c r="S35" s="3" t="n">
         <v>84</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="T35" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="U24" s="3" t="n">
+      <c r="U35" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="V24" s="3" t="n">
+      <c r="V35" s="3" t="n">
         <v>52</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="5" t="n">
+      <c r="W35" s="0" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
+      <c r="A36" s="20"/>
+      <c r="B36" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5" t="n">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V25" s="5" t="s">
+      <c r="J36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="13"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="R9:S9"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
@@ -11042,43 +11305,43 @@
   </sheetPr>
   <dimension ref="A1:AF45"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A28" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="V46" activeCellId="0" pane="topLeft" sqref="V46"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="W46" activeCellId="0" pane="topLeft" sqref="W46"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.91764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.48235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.48235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.07450980392157"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.03921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.07450980392157"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.65098039215686"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.03921568627451"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.1921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.62745098039216"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.62745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.3843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.50196078431373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.50196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.05882352941176"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.05882352941176"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.21176470588235"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.64313725490196"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.64313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.4745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -11473,14 +11736,14 @@
       <c r="M17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N17" s="23" t="s">
+      <c r="N17" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
       <c r="T17" s="5" t="n">
         <v>1</v>
       </c>
@@ -12215,6 +12478,9 @@
       <c r="V44" s="3" t="n">
         <v>58</v>
       </c>
+      <c r="W44" s="0" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
       <c r="A45" s="20"/>
@@ -12258,10 +12524,10 @@
       </c>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
-      <c r="V45" s="5" t="s">
+      <c r="V45" s="5"/>
+      <c r="W45" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="W45" s="5"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
@@ -12294,42 +12560,42 @@
   <dimension ref="A1:AF66"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="V67" activeCellId="0" pane="topLeft" sqref="V67"/>
+      <selection activeCell="W67" activeCellId="0" pane="topLeft" sqref="W67"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.91764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.48235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.48235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.07450980392157"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.03921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.07450980392157"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.65098039215686"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.03921568627451"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.1921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.62745098039216"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.62745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.3843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.50196078431373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.50196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.05882352941176"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.05882352941176"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.21176470588235"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.64313725490196"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.64313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.4745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12434,14 +12700,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="3">
       <c r="A3" s="5"/>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="5" t="n">
         <v>1</v>
       </c>
@@ -12495,7 +12761,7 @@
       <c r="AF3" s="14"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="4">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>17</v>
       </c>
     </row>
@@ -12564,7 +12830,7 @@
       <c r="AF5" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="7">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12625,7 +12891,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="10">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="26" t="s">
         <v>22</v>
       </c>
     </row>
@@ -12698,7 +12964,7 @@
       <c r="AF11" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="13">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>25</v>
       </c>
     </row>
@@ -12775,7 +13041,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="16">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12840,7 +13106,7 @@
       <c r="AF17" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="19">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="26" t="s">
         <v>49</v>
       </c>
     </row>
@@ -13344,14 +13610,14 @@
       <c r="M40" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N40" s="23" t="s">
+      <c r="N40" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
       <c r="T40" s="5" t="n">
         <v>1</v>
       </c>
@@ -14078,6 +14344,9 @@
       <c r="V65" s="3" t="n">
         <v>64</v>
       </c>
+      <c r="W65" s="0" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
       <c r="A66" s="20"/>
@@ -14123,10 +14392,12 @@
       <c r="U66" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="V66" s="5" t="s">
+      <c r="V66" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W66" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="W66" s="5"/>
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
